--- a/biology/Zoologie/Bironium_bicolor/Bironium_bicolor.xlsx
+++ b/biology/Zoologie/Bironium_bicolor/Bironium_bicolor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bironium bicolor est une espèce de coléoptères de la famille des Staphylinidae et de la sous-famille des Scaphidiinae.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est décrite de la province de Papouasie, en Indonésie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est décrite de la province de Papouasie, en Indonésie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Bironium bicolor Löbl, 2021[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Bironium bicolor Löbl, 2021.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, du latin bi, « deux », et color, « couleur », fait référence au motif de ses élytres et de son pronotum[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, du latin bi, « deux », et color, « couleur », fait référence au motif de ses élytres et de son pronotum.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Ivan Löbl, « A review of the Bironium Csiki, 1909 (Coleoptera: Staphylinidae: Scaphidiinae) of New Guinea and the Moluccas », Acta Musei Moraviae, Scientiae Biologicae, vol. 106, no 2,‎ 2021, p. 227-248 (ISSN 1211-8788, lire en ligne)</t>
         </is>
